--- a/NformTester/NformTester/Keywordscripts/600.20.20.10_ConfigureServerOptionSMTP.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.10_ConfigureServerOptionSMTP.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="14355"/>
@@ -1355,7 +1355,6 @@
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CN:$CN</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -4219,10 +4218,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>checked</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4244,6 +4239,10 @@
   </si>
   <si>
     <t>change testing</t>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4798,7 +4797,7 @@
   <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4925,7 +4924,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>295</v>
@@ -4955,7 +4954,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -5263,7 +5262,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>923</v>
@@ -5513,7 +5512,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="4"/>
@@ -5773,7 +5772,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -5885,13 +5884,13 @@
         <v>7</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>923</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -5957,7 +5956,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="4"/>

--- a/NformTester/NformTester/Keywordscripts/600.20.20.10_ConfigureServerOptionSMTP.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.10_ConfigureServerOptionSMTP.xlsx
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8476" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8478" uniqueCount="949">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4242,6 +4242,14 @@
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_default.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4424,7 +4432,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4482,6 +4490,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4797,7 +4809,7 @@
   <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5480,8 +5492,12 @@
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="23" t="s">
+        <v>947</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>948</v>
+      </c>
       <c r="C23" s="4">
         <v>22</v>
       </c>
